--- a/Companies/Distribution/NTPC Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
+++ b/Companies/Distribution/NTPC Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '18</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '18</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '19</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '19</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '19</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '19</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '19</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '18</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '18</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>22,261.08</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>24,120.36</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21,222.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24,192.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>22,764.57</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>24,192.59</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21,222.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>24,120.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>22,261.08</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>24192.59</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>21222.39</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>22912.198</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>22,261.08</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>24,120.36</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21,222.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24,192.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>22,764.57</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>24,192.59</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21,222.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>24,120.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>22,261.08</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>24192.59</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>21222.39</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>22912.198</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>784.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>12,912.21</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>784.48</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>12912.21</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>784.48</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>6848.344999999999</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>613.12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>710.15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>709.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>709.58</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>710.15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>613.12</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>710.15</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>613.12</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>677.6166666666667</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>12,872.48</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14,511.85</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11,990.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>13,874.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>13,874.33</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11,990.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>14,511.85</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>12,872.48</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>14511.85</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>11990.67</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>13312.3325</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1,185.55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1,146.37</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1,206.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1,195.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>1,137.15</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1,195.81</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1,206.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1,146.37</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1,185.55</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1206.08</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>1137.15</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>1174.192</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,888.45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2,001.01</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,504.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2,050.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>2,123.14</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2,050.95</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,504.75</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2,001.01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,888.45</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>2123.14</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1504.75</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1913.66</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>1,997.57</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1,172.09</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2,671.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1,885.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>2,369.02</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1,885.59</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2,671.66</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1,172.09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1,997.57</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>2671.66</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>1172.09</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>2019.186</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>3,703.91</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4,578.89</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3,139.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4,401.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>4,223.05</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4,401.43</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3,139.65</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4,578.89</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3,703.91</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>4578.89</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>3139.65</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>4009.386</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>224.88</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>187.65</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1,323.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>326.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>893.66</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>326.22</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1,323.22</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>187.65</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>224.88</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1323.22</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>187.65</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>591.126</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>3,928.79</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,766.54</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4,462.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4,727.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>5,116.71</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>4,727.65</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4,462.87</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4,766.54</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3,928.79</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>5116.71</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>3928.79</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>4600.512</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>1,294.11</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1,277.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>925.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1,565.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>1,618.99</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1,565.26</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>925.70</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1,277.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1,294.11</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>1618.99</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>925.7</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>1336.212</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2,634.68</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3,489.54</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3,537.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3,162.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>3,497.72</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3,162.39</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3,537.17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3,489.54</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2,634.68</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>3537.17</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2634.68</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3264.3</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>462.53</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>510.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>867.75</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>510.61</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>462.53</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>867.75</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>462.53</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>613.63</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2,634.68</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3,952.07</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3,537.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3,673.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>4,365.47</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3,673.00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3,537.17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3,952.07</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2,634.68</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>4365.47</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>2634.68</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>3632.478</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>578.57</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1,566.66</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-7,189.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,070.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,103.03</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,070.21</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-7,189.08</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1,566.66</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>578.57</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1566.66</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-7189.08</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>-574.122</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>2,056.11</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,385.41</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10,726.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2,602.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>3,262.44</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2,602.79</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>10,726.25</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2,385.41</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2,056.11</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>10726.25</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>2056.11</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>4206.6</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>369.91</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-6,375.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>-6,375.93</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>369.91</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>369.91</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>-6375.93</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>-3003.01</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>2,426.02</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2,385.41</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4,350.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2,602.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>3,262.44</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2,602.79</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4,350.32</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2,385.41</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2,426.02</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>4350.32</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>2385.41</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>3005.396</v>
       </c>
     </row>
     <row r="23">
@@ -1291,37 +1097,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>8,245.46</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8,245.46</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>9,894.56</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>9,894.56</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>9,894.56</t>
         </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>8,245.46</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>8,245.46</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>9894.559999999999</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>8245.459999999999</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>9234.92</v>
       </c>
     </row>
     <row r="24"/>
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>3.30</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>3.136</v>
       </c>
     </row>
     <row r="27">
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>3.30</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>10.84</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>4.336</v>
       </c>
     </row>
     <row r="28"/>
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>3.30</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>3.136</v>
       </c>
     </row>
     <row r="31">
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>3.30</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>10.84</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>4.336</v>
       </c>
     </row>
     <row r="32"/>
